--- a/Assets/Arts/Excels/CardParameterList.xlsx
+++ b/Assets/Arts/Excels/CardParameterList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiua\Documents\GitHub\OjousamaCard\Assets\Arts\Excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\human\OneDrive\ドキュメント\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC818D26-F258-478D-A490-62DC8303909B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462543BE-CA9D-42BF-8739-68CC452071A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3278" yWindow="3278" windowWidth="16200" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>分類</t>
   </si>
@@ -196,9 +196,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>自身の体力を7減少</t>
-  </si>
-  <si>
     <t>表示数値</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジスウチ</t>
@@ -283,6 +280,153 @@
     <t>表示時間</t>
     <rPh sb="0" eb="4">
       <t>ヒョウジジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コストを1回復、カードを1枚ドロー</t>
+    <rPh sb="5" eb="7">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次のカードをキャンセルさせる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃2-7</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身の体力を7減少</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃1-3、攻撃1-2、攻撃1-1、カードを1枚ドロー</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>マイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃5-8、攻撃1-7</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃4-6、攻撃2-3、攻撃6-9、攻撃1-2</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃3-4、攻撃2-8、攻撃2-6、攻撃7-13、攻撃1-2、自身に燃焼を10付与</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ネンショウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>フヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールド3-7、自身の体力を1減少</t>
+    <rPh sb="8" eb="10">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃4-6、攻撃2-6、自身の体力を3減少</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シールド5-12、自身の体力を5減少</t>
+    <rPh sb="9" eb="11">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃10-19、シールド3-3、自身の体力を7減少</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -343,11 +487,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,24 +789,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="20.1875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.3984375" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="9.1875" customWidth="1"/>
-    <col min="7" max="7" width="39.1875" customWidth="1"/>
-    <col min="8" max="8" width="33.6875" customWidth="1"/>
-    <col min="9" max="9" width="17.3125" customWidth="1"/>
+    <col min="5" max="5" width="32.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" customWidth="1"/>
+    <col min="7" max="7" width="39.19921875" customWidth="1"/>
+    <col min="8" max="8" width="33.69921875" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="8.3125" customWidth="1"/>
-    <col min="12" max="12" width="18.125" customWidth="1"/>
+    <col min="11" max="11" width="8.296875" customWidth="1"/>
+    <col min="12" max="12" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -673,7 +826,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
@@ -685,10 +838,10 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -709,18 +862,20 @@
       <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="I2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="36">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -740,18 +895,20 @@
       <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="36">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -767,12 +924,14 @@
       <c r="G4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K4">
         <v>1.5</v>
@@ -796,12 +955,14 @@
         <v>12</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>2.6</v>
@@ -823,12 +984,14 @@
       <c r="G6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6">
         <v>2.2999999999999998</v>
@@ -852,18 +1015,20 @@
         <v>17</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="I7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="36">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -883,12 +1048,14 @@
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="I8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
         <v>8</v>
@@ -912,12 +1079,14 @@
       <c r="G9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="I9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -941,12 +1110,14 @@
         <v>5</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="I10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10">
         <v>1.3</v>
@@ -972,12 +1143,14 @@
       <c r="G11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K11" s="1">
         <v>1.5</v>
@@ -1003,12 +1176,14 @@
       <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>2.5</v>
@@ -1032,12 +1207,14 @@
       <c r="G13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>1.5</v>
@@ -1063,18 +1240,20 @@
       <c r="G14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="2"/>
+      <c r="H14" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="36">
       <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
@@ -1092,14 +1271,16 @@
         <v>16</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H15" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="I15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K15">
         <v>4.8</v>
